--- a/biology/Microbiologie/Nitrosomonadaceae/Nitrosomonadaceae.xlsx
+++ b/biology/Microbiologie/Nitrosomonadaceae/Nitrosomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nitrosomonadaceae forment une famille de bactéries comprenant notamment les Nitrosomonas.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Nitrosomonadaceae a été décrite en 2005 dans le Bergey's Manual of Systematic Bacteriology[1] et validée en 2006.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Nitrosomonadaceae a été décrite en 2005 dans le Bergey's Manual of Systematic Bacteriology et validée en 2006.
 </t>
         </is>
       </c>
@@ -542,14 +556,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nitrosomonadaceae Garrity et al. 2006[2].
-Le genre type est : Nitrosomonas Winogradsky 1892[2].
-Étymologie
-L'étymologie de cette famille Nitrosomonadaceae est la suivante : N.L. fem. n. Nitrosomonas, genre type de cette famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Nitrosomonadaceae, la famille des Nitrosomonas[3].
-Liste des genres
-Selon LPSN  (6 mai 2023)[2], cette famille comprend trois genres dont deux ayant un nom publié de manière correcte et valide :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nitrosomonadaceae Garrity et al. 2006.
+Le genre type est : Nitrosomonas Winogradsky 1892.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nitrosomonadaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nitrosomonadaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette famille Nitrosomonadaceae est la suivante : N.L. fem. n. Nitrosomonas, genre type de cette famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Nitrosomonadaceae, la famille des Nitrosomonas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nitrosomonadaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nitrosomonadaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (6 mai 2023), cette famille comprend trois genres dont deux ayant un nom publié de manière correcte et valide :
 Nitrosomonas Winogradsky 1892
 Nitrosospira Winogradsky &amp; Winogradsky 1933
 Le troisième genre bactérien dont le nom n'est pas publié de manière valide ou correcte mais qui reste en attendant une éventuelle correction, le nom préféré :
